--- a/app/Licenciatura_em_Producao_Agricola.xlsx
+++ b/app/Licenciatura_em_Producao_Agricola.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Helena Elias Ngovene</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>Maria Luisa SÁbado</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110501065090B</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>Clara Jorge Zefanias</t>
   </si>
   <si>
-    <t>Distrito de Homoine</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
     <t>Leonor Armando Mahumane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>100102780692F</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t xml:space="preserve">Alima Henrique </t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>030101723244I</t>
   </si>
   <si>
@@ -353,9 +338,6 @@
     <t>Percina Moiane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>090100954149C</t>
   </si>
   <si>
@@ -380,9 +362,6 @@
     <t>Olga Moises</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>080104199861S</t>
   </si>
   <si>
@@ -452,9 +431,6 @@
     <t>Venancio Sevene Doho</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>080500487281C</t>
   </si>
   <si>
@@ -474,9 +450,6 @@
   </si>
   <si>
     <t>Berta Suzana Jeremias</t>
-  </si>
-  <si>
-    <t>Cidade de Maxixe</t>
   </si>
   <si>
     <t>100102580566P</t>
@@ -1808,7 +1781,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -1824,7 +1797,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1840,7 +1813,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -1856,7 +1829,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1872,7 +1845,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1887,9 +1860,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -1897,7 +1868,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -1908,7 +1879,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1917,7 +1888,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -1929,7 +1900,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -1937,7 +1908,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2033,7 +2004,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2076,7 +2047,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2403,7 +2374,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2419,7 +2390,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2435,7 +2406,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2451,7 +2422,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2467,7 +2438,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2482,9 +2453,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2492,7 +2461,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2503,7 +2472,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2512,7 +2481,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2524,7 +2493,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2532,7 +2501,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2628,7 +2597,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2671,7 +2640,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2998,7 +2967,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3014,7 +2983,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3030,7 +2999,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3046,7 +3015,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3062,7 +3031,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3077,9 +3046,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3087,7 +3054,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3098,7 +3065,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3107,7 +3074,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3119,7 +3086,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3127,7 +3094,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3223,7 +3190,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3266,7 +3233,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3593,7 +3560,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3609,7 +3576,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3625,7 +3592,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3641,7 +3608,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3657,7 +3624,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3672,9 +3639,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3682,7 +3647,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3693,7 +3658,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3702,7 +3667,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3714,7 +3679,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3722,7 +3687,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3818,7 +3783,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3861,7 +3826,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4188,7 +4153,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4204,7 +4169,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4220,7 +4185,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4236,7 +4201,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4252,7 +4217,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4267,9 +4232,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4277,7 +4240,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4288,7 +4251,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4297,7 +4260,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4309,7 +4272,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4317,7 +4280,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4413,7 +4376,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4456,7 +4419,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4783,7 +4746,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4799,7 +4762,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4815,7 +4778,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4831,7 +4794,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4847,7 +4810,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4862,9 +4825,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4872,7 +4833,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4883,7 +4844,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4892,7 +4853,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4904,7 +4865,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5008,7 +4969,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5051,7 +5012,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5378,7 +5339,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5394,7 +5355,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5410,7 +5371,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5426,7 +5387,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5442,7 +5403,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5457,9 +5418,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5467,7 +5426,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5478,7 +5437,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5487,7 +5446,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5499,7 +5458,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5507,7 +5466,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5603,7 +5562,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5646,7 +5605,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6108,9 +6067,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6118,7 +6075,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6129,7 +6086,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6138,7 +6095,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6150,7 +6107,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6158,7 +6115,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6254,7 +6211,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6297,7 +6254,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6624,7 +6581,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6640,7 +6597,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6656,7 +6613,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6672,7 +6629,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6688,7 +6645,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6703,9 +6660,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6713,7 +6668,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6724,7 +6679,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6733,7 +6688,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6745,7 +6700,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6753,7 +6708,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6849,7 +6804,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6892,7 +6847,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7219,7 +7174,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7235,7 +7190,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7251,7 +7206,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7267,7 +7222,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7283,7 +7238,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7298,9 +7253,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7308,7 +7261,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7319,7 +7272,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7328,7 +7281,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7340,7 +7293,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7348,7 +7301,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7444,7 +7397,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7487,7 +7440,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7814,7 +7767,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7830,7 +7783,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7846,7 +7799,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7862,7 +7815,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7878,7 +7831,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7893,9 +7846,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7903,7 +7854,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7914,7 +7865,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7923,7 +7874,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7935,7 +7886,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7943,7 +7894,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8039,7 +7990,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8082,7 +8033,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8409,7 +8360,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8425,7 +8376,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8441,7 +8392,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8457,7 +8408,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8473,7 +8424,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8488,9 +8439,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8498,7 +8447,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8509,7 +8458,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8518,7 +8467,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8530,7 +8479,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8538,7 +8487,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8634,7 +8583,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8677,7 +8626,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9004,7 +8953,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9020,7 +8969,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9036,7 +8985,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9052,7 +9001,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9068,7 +9017,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9083,9 +9032,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9093,7 +9040,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9104,7 +9051,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9113,7 +9060,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9125,7 +9072,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9133,7 +9080,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9229,7 +9176,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9272,7 +9219,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9599,7 +9546,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9615,7 +9562,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9631,7 +9578,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9647,7 +9594,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9663,7 +9610,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9678,9 +9625,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9688,7 +9633,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9699,7 +9644,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9708,7 +9653,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9720,7 +9665,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9728,7 +9673,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9824,7 +9769,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9867,7 +9812,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10194,7 +10139,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10210,7 +10155,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10226,7 +10171,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10242,7 +10187,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10258,7 +10203,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10273,9 +10218,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10283,7 +10226,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10294,7 +10237,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10303,7 +10246,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10315,7 +10258,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10323,7 +10266,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10419,7 +10362,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10462,7 +10405,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
